--- a/biology/Zoologie/Diplodactylidae/Diplodactylidae.xlsx
+++ b/biology/Zoologie/Diplodactylidae/Diplodactylidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diplodactylidae sont une famille de geckos. Elle a été créée par Garth Underwood en 1954.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent en Australie, en Nouvelle-Calédonie et en Nouvelle-Zélande.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des geckos majoritairement arboricoles et nocturnes, vivant principalement dans des forêts humides.
 Certaines espèces de cette famille portent des pièces adhésives sous la queue de même type que celles sous les doigts, les setae.
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (20 décembre 2012)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (20 décembre 2012) :
 Amalosia Wells &amp; Wellington, 1983
 Bavayia Roux, 1913
 Correlophus Guichenot, 1866
@@ -630,7 +648,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Underwood, 1954 : On the classifcation and evolution of geckos. Proceedings of the Zoological Society of London, vol. 124, n. 3, p. 469-492.</t>
         </is>
